--- a/medicine/Mort/Nécropole_thébaine/Nécropole_thébaine.xlsx
+++ b/medicine/Mort/Nécropole_thébaine/Nécropole_thébaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_th%C3%A9baine</t>
+          <t>Nécropole_thébaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La nécropole thébaine est une vaste nécropole située sur la rive ouest du Nil, en face de Louxor en Égypte. Elle fut utilisée principalement sous le Nouvel Empire. C'est un lieu touristique classé au patrimoine mondial de l'humanité. On y trouve des temples et des tombes. Les fouilles sont incessantes et les autorités égyptiennes ne parviennent pas à juguler les vols, tant le site est vaste. Le va-et-vient des touristes empêche une bonne sécurisation des lieux. Le service des antiquités égyptiennes estime que 20 % des objets retrouvés lors des fouilles dans la nécropole thébaine disparaissent entre les mains des touristes, mais il lui est cependant impossible de faire procéder à une fouille systématique des sacs tant le flux touristique est important [réf. nécessaire]. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_th%C3%A9baine</t>
+          <t>Nécropole_thébaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Temples funéraires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deir el-Bahari
 Temple funéraire d'Hatchepsout
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_th%C3%A9baine</t>
+          <t>Nécropole_thébaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Nécropoles royales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vallée des Rois
 Vallée des Reines</t>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_th%C3%A9baine</t>
+          <t>Nécropole_thébaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Autres nécropoles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deir el-Médineh
 Tombeaux des artisans
